--- a/ReadMultipleExcelFiles/工作簿1.xlsx
+++ b/ReadMultipleExcelFiles/工作簿1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/waynezhang/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/waynezhang/Documents/WorkSpaceCode/PythonProjects/ReadMultipleExcelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,58 +29,63 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
+    <t>正高3</t>
+  </si>
+  <si>
+    <t>正高4</t>
+  </si>
+  <si>
+    <t>副高5</t>
+  </si>
+  <si>
+    <t>副高6</t>
+  </si>
+  <si>
+    <t>副高7</t>
+  </si>
+  <si>
+    <t>中级8</t>
+  </si>
+  <si>
+    <t>中级9</t>
+  </si>
+  <si>
+    <t>中级10</t>
+  </si>
+  <si>
+    <t>初级12</t>
+  </si>
+  <si>
+    <t>初级13</t>
+  </si>
+  <si>
+    <t>上海行健职业学院</t>
+  </si>
+  <si>
+    <t>业余大学</t>
+  </si>
+  <si>
+    <t>上海市逸夫职业技术学校</t>
+  </si>
+  <si>
+    <t>上海市市北职业高级中学</t>
+  </si>
+  <si>
+    <t>育才中学</t>
+  </si>
+  <si>
+    <t>上海市市西中学</t>
+  </si>
+  <si>
     <t>正高2</t>
-  </si>
-  <si>
-    <t>正高3</t>
-  </si>
-  <si>
-    <t>正高4</t>
-  </si>
-  <si>
-    <t>副高5</t>
-  </si>
-  <si>
-    <t>副高6</t>
-  </si>
-  <si>
-    <t>副高7</t>
-  </si>
-  <si>
-    <t>中级8</t>
-  </si>
-  <si>
-    <t>中级9</t>
-  </si>
-  <si>
-    <t>中级10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>初级11</t>
-  </si>
-  <si>
-    <t>初级12</t>
-  </si>
-  <si>
-    <t>初级13</t>
-  </si>
-  <si>
-    <t>上海行健职业学院</t>
-  </si>
-  <si>
-    <t>业余大学</t>
-  </si>
-  <si>
-    <t>上海市逸夫职业技术学校</t>
-  </si>
-  <si>
-    <t>上海市市北职业高级中学</t>
-  </si>
-  <si>
-    <t>育才中学</t>
-  </si>
-  <si>
-    <t>上海市市西中学</t>
+    <rPh sb="0" eb="1">
+      <t>chu'ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -466,7 +471,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -474,45 +479,45 @@
     <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -541,9 +546,7 @@
       <c r="J2" s="2">
         <v>29</v>
       </c>
-      <c r="K2" s="2">
-        <v>8</v>
-      </c>
+      <c r="K2" s="2"/>
       <c r="L2" s="2">
         <v>12</v>
       </c>
@@ -553,7 +556,7 @@
     </row>
     <row r="3" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -582,9 +585,7 @@
       <c r="J3" s="2">
         <v>11</v>
       </c>
-      <c r="K3" s="2">
-        <v>9</v>
-      </c>
+      <c r="K3" s="2"/>
       <c r="L3" s="2">
         <v>20</v>
       </c>
@@ -594,7 +595,7 @@
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -623,9 +624,7 @@
       <c r="J4" s="2">
         <v>32</v>
       </c>
-      <c r="K4" s="2">
-        <v>24</v>
-      </c>
+      <c r="K4" s="2"/>
       <c r="L4" s="2">
         <v>24</v>
       </c>
@@ -635,7 +634,7 @@
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -664,9 +663,7 @@
       <c r="J5" s="2">
         <v>25</v>
       </c>
-      <c r="K5" s="2">
-        <v>15</v>
-      </c>
+      <c r="K5" s="2"/>
       <c r="L5" s="2">
         <v>15</v>
       </c>
@@ -676,7 +673,7 @@
     </row>
     <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -705,9 +702,7 @@
       <c r="J6" s="2">
         <v>23</v>
       </c>
-      <c r="K6" s="2">
-        <v>6</v>
-      </c>
+      <c r="K6" s="2"/>
       <c r="L6" s="2">
         <v>16</v>
       </c>
@@ -717,7 +712,7 @@
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="4">
         <v>0</v>
@@ -746,9 +741,7 @@
       <c r="J7" s="4">
         <v>15</v>
       </c>
-      <c r="K7" s="4">
-        <v>8</v>
-      </c>
+      <c r="K7" s="4"/>
       <c r="L7" s="4">
         <v>24</v>
       </c>

--- a/ReadMultipleExcelFiles/工作簿1.xlsx
+++ b/ReadMultipleExcelFiles/工作簿1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>正高3</t>
   </si>
@@ -84,6 +84,13 @@
     <t>初级11</t>
     <rPh sb="0" eb="1">
       <t>chu'ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <rPh sb="0" eb="1">
+      <t>dan'wei</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -471,13 +478,15 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
